--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView windowHeight="3690" windowWidth="15495" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
@@ -24,16 +25,20 @@
     <t>admin@123</t>
   </si>
   <si>
-    <t>srinivas</t>
+    <t>sathish</t>
   </si>
   <si>
-    <t>Srinu1234</t>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,19 +74,19 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -95,10 +100,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -256,7 +261,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -265,13 +270,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -281,7 +286,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -290,7 +295,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -299,7 +304,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -309,12 +314,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -345,7 +350,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -364,7 +369,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -376,16 +381,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,42 +398,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink r:id="rId2" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="3690" windowWidth="15495" xWindow="0" yWindow="2445"/>
+    <workbookView windowHeight="3600" windowWidth="14145" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>sathish</t>
+  </si>
+  <si>
+    <t>manikanta</t>
+  </si>
+  <si>
+    <t>rao1232</t>
   </si>
   <si>
     <t>Fail</t>
@@ -382,13 +388,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.7109375" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -406,13 +416,31 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B1"/>
     <hyperlink r:id="rId2" ref="B2"/>
+    <hyperlink r:id="rId3" ref="B3"/>
+    <hyperlink r:id="rId4" ref="B4"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -426,6 +426,9 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="3600" windowWidth="14145" xWindow="0" yWindow="2445"/>
+    <workbookView windowHeight="3690" windowWidth="14925" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>
@@ -34,10 +34,13 @@
     <t>rao1232</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>https://hrmsdemo.onpassive.com</t>
+  </si>
+  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,15 +403,18 @@
     <col min="2" max="2" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -416,10 +422,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -427,10 +433,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -444,6 +450,7 @@
     <hyperlink r:id="rId2" ref="B2"/>
     <hyperlink r:id="rId3" ref="B3"/>
     <hyperlink r:id="rId4" ref="B4"/>
+    <hyperlink r:id="rId5" ref="G1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="3690" windowWidth="14925" xWindow="0" yWindow="2445"/>
+    <workbookView windowHeight="3870" windowWidth="14925" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>https://hrmsdemo.onpassive.com</t>
+    <t>https://ostaffuidev.onpassive.com/</t>
   </si>
   <si>
     <t>Fail</t>
@@ -450,7 +450,6 @@
     <hyperlink r:id="rId2" ref="B2"/>
     <hyperlink r:id="rId3" ref="B3"/>
     <hyperlink r:id="rId4" ref="B4"/>
-    <hyperlink r:id="rId5" ref="G1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="3870" windowWidth="14925" xWindow="0" yWindow="2445"/>
+    <workbookView windowHeight="2955" windowWidth="15705" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N10"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>https://ostaffuidev.onpassive.com/</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -394,13 +394,14 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -411,7 +412,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -450,6 +451,7 @@
     <hyperlink r:id="rId2" ref="B2"/>
     <hyperlink r:id="rId3" ref="B3"/>
     <hyperlink r:id="rId4" ref="B4"/>
+    <hyperlink r:id="rId5" ref="G1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="2955" windowWidth="15705" xWindow="0" yWindow="2445"/>
+    <workbookView windowHeight="3165" windowWidth="15540" xWindow="4320" yWindow="3105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
-  <si>
-    <t>admin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>admin@123</t>
   </si>
@@ -37,10 +34,16 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>https://ostaffuidev.onpassive.com/login/loginPage</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>nilanjan</t>
+  </si>
+  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>https://ostaffuidev.onpassive.com/</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCellId="1" sqref="A2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,43 +409,43 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalData/loginData.xlsx
+++ b/ExternalData/loginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="3165" windowWidth="15540" xWindow="4320" yWindow="3105"/>
+    <workbookView windowHeight="3855" windowWidth="15540" xWindow="0" yWindow="1125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>admin@123</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>https://ostaffuidev.onpassive.com/login/loginPage</t>
-  </si>
-  <si>
-    <t>Admin@123</t>
   </si>
   <si>
     <t>nilanjan</t>
@@ -397,7 +394,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCellId="1" sqref="A2 A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,10 +406,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -450,11 +447,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="B3"/>
-    <hyperlink r:id="rId4" ref="B4"/>
-    <hyperlink r:id="rId5" ref="G1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="G1"/>
+    <hyperlink r:id="rId5" ref="B1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
